--- a/Docs/2023Dec15 HEUvUE LPS From Maggie 12152023.xlsx
+++ b/Docs/2023Dec15 HEUvUE LPS From Maggie 12152023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jnj-my.sharepoint.com/personal/dsargsy_its_jnj_com/Documents/projects_ru/flow_cytometry/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2104325-E4B7-8241-8B85-16BC98F26E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{A2104325-E4B7-8241-8B85-16BC98F26E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38F89BA1-1363-483B-BE97-6B3CE0E0BB2A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{B7DC96AB-7611-B143-BEB7-5957CA9AF991}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B7DC96AB-7611-B143-BEB7-5957CA9AF991}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Marker</t>
   </si>
@@ -44,45 +44,24 @@
     <t>Fluorophore</t>
   </si>
   <si>
-    <t>FITC</t>
-  </si>
-  <si>
     <t>IFNa</t>
   </si>
   <si>
-    <t>PE</t>
-  </si>
-  <si>
     <t>CD123</t>
   </si>
   <si>
-    <t>PerCP-Cy5-5</t>
-  </si>
-  <si>
     <t>MHCII</t>
   </si>
   <si>
-    <t>PE-Cy7</t>
-  </si>
-  <si>
     <t>CD14</t>
   </si>
   <si>
-    <t>APC</t>
-  </si>
-  <si>
     <t>CD11c</t>
   </si>
   <si>
-    <t>Pac Blue</t>
-  </si>
-  <si>
     <t>IL12</t>
   </si>
   <si>
-    <t>Alexa Fluor 700</t>
-  </si>
-  <si>
     <t>TNFa</t>
   </si>
   <si>
@@ -102,6 +81,33 @@
   </si>
   <si>
     <t>pro inflammatory cytokine (part of response)</t>
+  </si>
+  <si>
+    <t>FITC-A</t>
+  </si>
+  <si>
+    <t>PE-A</t>
+  </si>
+  <si>
+    <t>PerCP-Cy5-5-A</t>
+  </si>
+  <si>
+    <t>PE-Cy7-A</t>
+  </si>
+  <si>
+    <t>APC-A</t>
+  </si>
+  <si>
+    <t>APC-Cy7-A</t>
+  </si>
+  <si>
+    <t>IL6</t>
+  </si>
+  <si>
+    <t>Pac Blue-A</t>
+  </si>
+  <si>
+    <t>Alexa Fluor 700-A</t>
   </si>
 </sst>
 </file>
@@ -502,15 +508,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046811AE-E3E3-284A-B9B0-2FEB887C768B}">
-  <dimension ref="B4:M31"/>
+  <dimension ref="B4:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B5" sqref="B5:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -523,93 +529,105 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
         <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M31" t="s">
-        <v>20</v>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M28" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>